--- a/data/trans_orig/P78C5_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78C5_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E588CC1C-0F46-41BA-A900-F3456903A2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDF7FBBF-2671-416A-8E5C-FCF9DF473A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AB59A458-7DA6-4EEC-B309-7BD75BD760EA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{98697B47-0478-4BAD-945D-38BA7F86F909}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -101,19 +101,19 @@
     <t>73,58%</t>
   </si>
   <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
   </si>
   <si>
     <t>96,34%</t>
@@ -122,109 +122,112 @@
     <t>26,42%</t>
   </si>
   <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>31,61%</t>
+    <t>31,28%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
   <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
   </si>
   <si>
     <t>Huelva</t>
   </si>
   <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -233,157 +236,154 @@
     <t>56,93%</t>
   </si>
   <si>
-    <t>39,75%</t>
+    <t>38,97%</t>
   </si>
   <si>
     <t>43,07%</t>
   </si>
   <si>
-    <t>60,25%</t>
+    <t>61,03%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
   </si>
   <si>
     <t>92,39%</t>
   </si>
   <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -798,7 +798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433D8E68-BA89-440D-9AA7-4A479BA1A0D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2F9087-4F5F-4F61-81E1-2574AFA28FA5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -919,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>792</v>
+        <v>838</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -947,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>792</v>
+        <v>838</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -1017,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>792</v>
+        <v>838</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -1045,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>792</v>
+        <v>838</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -1068,7 +1068,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>7096</v>
+        <v>6834</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
@@ -1083,7 +1083,7 @@
         <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>10880</v>
+        <v>10096</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>21</v>
@@ -1098,7 +1098,7 @@
         <v>22</v>
       </c>
       <c r="N7" s="7">
-        <v>17976</v>
+        <v>16930</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>24</v>
@@ -1134,7 +1134,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>2536</v>
+        <v>2368</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>28</v>
@@ -1149,7 +1149,7 @@
         <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>2536</v>
+        <v>2368</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>31</v>
@@ -1170,7 +1170,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>7096</v>
+        <v>6834</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1185,7 +1185,7 @@
         <v>19</v>
       </c>
       <c r="I9" s="7">
-        <v>13416</v>
+        <v>12464</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1200,7 +1200,7 @@
         <v>25</v>
       </c>
       <c r="N9" s="7">
-        <v>20512</v>
+        <v>19298</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1223,7 +1223,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>2440</v>
+        <v>2334</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>35</v>
@@ -1253,16 +1253,16 @@
         <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>2440</v>
+        <v>2335</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1274,28 +1274,28 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1286</v>
+        <v>1292</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>3695</v>
+        <v>3506</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>13</v>
@@ -1304,16 +1304,16 @@
         <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>4981</v>
+        <v>4798</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1325,7 +1325,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>3726</v>
+        <v>3626</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1340,7 +1340,7 @@
         <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>3695</v>
+        <v>3506</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1355,7 +1355,7 @@
         <v>8</v>
       </c>
       <c r="N12" s="7">
-        <v>7421</v>
+        <v>7133</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1378,25 +1378,25 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>2422</v>
+        <v>2499</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1407</v>
+        <v>1307</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>16</v>
@@ -1408,16 +1408,16 @@
         <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>3828</v>
+        <v>3806</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1429,13 +1429,13 @@
         <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>2851</v>
+        <v>2648</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>11</v>
@@ -1444,10 +1444,10 @@
         <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>1672</v>
+        <v>1600</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>16</v>
@@ -1459,16 +1459,16 @@
         <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>4524</v>
+        <v>4248</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1480,7 +1480,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="7">
-        <v>5273</v>
+        <v>5147</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1495,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="7">
-        <v>3079</v>
+        <v>2907</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1510,7 +1510,7 @@
         <v>8</v>
       </c>
       <c r="N15" s="7">
-        <v>8352</v>
+        <v>8054</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1533,10 +1533,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>599</v>
+        <v>542</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>16</v>
@@ -1563,10 +1563,10 @@
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>599</v>
+        <v>543</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>16</v>
@@ -1584,10 +1584,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>540</v>
+        <v>492</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
@@ -1599,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>11</v>
@@ -1614,10 +1614,10 @@
         <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>941</v>
+        <v>855</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>16</v>
@@ -1635,7 +1635,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>1139</v>
+        <v>1034</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -1650,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -1665,7 +1665,7 @@
         <v>3</v>
       </c>
       <c r="N18" s="7">
-        <v>1540</v>
+        <v>1398</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1697,13 +1697,13 @@
         <v>17</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>722</v>
+        <v>666</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>11</v>
@@ -1718,10 +1718,10 @@
         <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>723</v>
+        <v>666</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>16</v>
@@ -1739,13 +1739,13 @@
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>1095</v>
+        <v>1043</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
@@ -1769,10 +1769,10 @@
         <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>1095</v>
+        <v>1044</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>16</v>
@@ -1790,7 +1790,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>1095</v>
+        <v>1043</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="7">
-        <v>722</v>
+        <v>666</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -1820,7 +1820,7 @@
         <v>3</v>
       </c>
       <c r="N21" s="7">
-        <v>1818</v>
+        <v>1710</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1843,13 +1843,13 @@
         <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>4336</v>
+        <v>4163</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>11</v>
@@ -1858,31 +1858,31 @@
         <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>2794</v>
+        <v>2594</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
       </c>
       <c r="N22" s="7">
-        <v>7131</v>
+        <v>6757</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1894,46 +1894,46 @@
         <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>2217</v>
+        <v>2155</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
       </c>
       <c r="I23" s="7">
-        <v>1554</v>
+        <v>1458</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
       </c>
       <c r="N23" s="7">
-        <v>3770</v>
+        <v>3612</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1945,7 +1945,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>6553</v>
+        <v>6318</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>13</v>
@@ -1960,7 +1960,7 @@
         <v>7</v>
       </c>
       <c r="I24" s="7">
-        <v>4348</v>
+        <v>4052</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>13</v>
@@ -1975,7 +1975,7 @@
         <v>13</v>
       </c>
       <c r="N24" s="7">
-        <v>10901</v>
+        <v>10369</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>13</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -1998,13 +1998,13 @@
         <v>19</v>
       </c>
       <c r="D25" s="7">
-        <v>20483</v>
+        <v>17030</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>11</v>
@@ -2013,13 +2013,13 @@
         <v>24</v>
       </c>
       <c r="I25" s="7">
-        <v>19032</v>
+        <v>15887</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -2028,16 +2028,16 @@
         <v>43</v>
       </c>
       <c r="N25" s="7">
-        <v>39514</v>
+        <v>32917</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,16 +2049,16 @@
         <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>1339</v>
+        <v>1161</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2079,7 +2079,7 @@
         <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>1339</v>
+        <v>1161</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>95</v>
@@ -2100,7 +2100,7 @@
         <v>21</v>
       </c>
       <c r="D27" s="7">
-        <v>21822</v>
+        <v>18191</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -2115,7 +2115,7 @@
         <v>24</v>
       </c>
       <c r="I27" s="7">
-        <v>19032</v>
+        <v>15887</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -2130,7 +2130,7 @@
         <v>45</v>
       </c>
       <c r="N27" s="7">
-        <v>40853</v>
+        <v>34078</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -2153,7 +2153,7 @@
         <v>35</v>
       </c>
       <c r="D28" s="7">
-        <v>38167</v>
+        <v>34241</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>98</v>
@@ -2168,7 +2168,7 @@
         <v>47</v>
       </c>
       <c r="I28" s="7">
-        <v>34835</v>
+        <v>30550</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>101</v>
@@ -2183,7 +2183,7 @@
         <v>82</v>
       </c>
       <c r="N28" s="7">
-        <v>73002</v>
+        <v>64791</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>104</v>
@@ -2204,7 +2204,7 @@
         <v>11</v>
       </c>
       <c r="D29" s="7">
-        <v>9328</v>
+        <v>8791</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>107</v>
@@ -2219,7 +2219,7 @@
         <v>13</v>
       </c>
       <c r="I29" s="7">
-        <v>9859</v>
+        <v>9295</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>110</v>
@@ -2234,7 +2234,7 @@
         <v>24</v>
       </c>
       <c r="N29" s="7">
-        <v>19187</v>
+        <v>18086</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>113</v>
@@ -2255,7 +2255,7 @@
         <v>46</v>
       </c>
       <c r="D30" s="7">
-        <v>47495</v>
+        <v>43032</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>13</v>
@@ -2270,7 +2270,7 @@
         <v>60</v>
       </c>
       <c r="I30" s="7">
-        <v>44694</v>
+        <v>39845</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>13</v>
@@ -2285,7 +2285,7 @@
         <v>106</v>
       </c>
       <c r="N30" s="7">
-        <v>92189</v>
+        <v>82877</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>13</v>
